--- a/assets/PriorTool_Input_Data_3.xlsx
+++ b/assets/PriorTool_Input_Data_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bencahill/Documents/python_progs/Prioritising_Tool/PriorTool/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082A5323-FF63-4446-81AA-3514801C95B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B83006-6A63-854E-9CD5-4673653DB673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14980" yWindow="760" windowWidth="19580" windowHeight="20620" xr2:uid="{A8BEBEA9-D1E6-634C-884B-3ACC2F953EB0}"/>
   </bookViews>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76784108-58B2-6945-B52F-A78989885E15}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -549,7 +549,7 @@
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
     <col min="6" max="6" width="27.1640625" customWidth="1"/>
